--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9348"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9348" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -150,6 +150,45 @@
   </si>
   <si>
     <t>Ajouter des PNJ et montres dans des tags NFC</t>
+  </si>
+  <si>
+    <t>Programmation de l'interface</t>
+  </si>
+  <si>
+    <t>Programmation et incorporation de la technologie NFC dans la forme de l'app à partir d'interface</t>
+  </si>
+  <si>
+    <t>Test sur la puce</t>
+  </si>
+  <si>
+    <t>Réglage de bugs</t>
+  </si>
+  <si>
+    <t>Conception de la forme de l'app Suppression personnage</t>
+  </si>
+  <si>
+    <t>Finission de la forme</t>
+  </si>
+  <si>
+    <t>Programmation de la suppression d'un personnage sur la puce</t>
+  </si>
+  <si>
+    <t>Amélioration des interfaces pour plus d'hergonomie</t>
+  </si>
+  <si>
+    <t>Conception de la forme de l'app CreationPersonnage</t>
+  </si>
+  <si>
+    <t>Conception de la forme de l'app LirePersonnage</t>
+  </si>
+  <si>
+    <t>Programmation de la forme LirePersonnage</t>
+  </si>
+  <si>
+    <t>Amélioration du code dans Lire personnages</t>
+  </si>
+  <si>
+    <t>Continuation du code dans CréationPersonnage</t>
   </si>
 </sst>
 </file>
@@ -293,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,6 +384,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1601,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1849,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1907,79 +1948,169 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="24">
+        <v>42765</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="23">
+        <v>42765</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="23">
+        <v>42766</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="23">
+        <v>42766</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="23">
+        <v>42766</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="23">
+        <v>42767</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="23">
+        <v>42772</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="23">
+        <v>42772</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="23">
+        <v>42773</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="23">
+        <v>42773</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="23">
+        <v>42773</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="23">
+        <v>42773</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="23">
+        <v>42775</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="15"/>
+      <c r="A27" s="23">
+        <v>42780</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
+      <c r="A28" s="23">
+        <v>42780</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="15">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
@@ -2028,7 +2159,7 @@
       <c r="B37" s="19"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -1891,7 +1891,7 @@
   <dimension ref="A6:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2113,9 +2113,15 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="15"/>
+      <c r="A29" s="23">
+        <v>42780</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
@@ -2159,7 +2165,7 @@
       <c r="B37" s="19"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9348" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9348" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Semaine 15</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Le projet doit être décomposé en plusieurs sections indépendantes qui doivent être priorisées et estimées</t>
   </si>
   <si>
@@ -189,6 +186,33 @@
   </si>
   <si>
     <t>Continuation du code dans CréationPersonnage</t>
+  </si>
+  <si>
+    <t>Note (8/10)</t>
+  </si>
+  <si>
+    <t>C'est allé mieux que je le pensais!</t>
+  </si>
+  <si>
+    <t>Changement du code dans la lecture</t>
+  </si>
+  <si>
+    <t>amélioration de la form lecture</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Ajout et amélioration du code dans lecture et ecriture</t>
+  </si>
+  <si>
+    <t>Ajout et codage de la modification dans lecture</t>
+  </si>
+  <si>
+    <t>deguage</t>
+  </si>
+  <si>
+    <t>Attente android studio et gradle</t>
   </si>
 </sst>
 </file>
@@ -369,6 +393,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -384,8 +410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1655,7 +1679,7 @@
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1700,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
@@ -1711,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3">
         <v>10</v>
@@ -1722,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3">
         <v>10</v>
@@ -1733,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3">
         <v>15</v>
@@ -1744,17 +1768,17 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>50</v>
@@ -1788,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3">
         <v>5</v>
@@ -1799,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3">
         <v>20</v>
@@ -1810,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="3">
         <v>5</v>
@@ -1821,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="3">
         <v>5</v>
@@ -1832,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3">
         <v>5</v>
@@ -1860,10 +1884,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>40</v>
@@ -1890,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1948,176 +1972,176 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
+      <c r="A14" s="19">
         <v>42765</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
+      <c r="A15" s="18">
         <v>42765</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="15">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
+      <c r="A16" s="18">
         <v>42766</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="15">
         <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
+      <c r="A17" s="18">
         <v>42766</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="15">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
+      <c r="A18" s="18">
         <v>42766</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
+      <c r="A19" s="18">
         <v>42767</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="18">
         <v>42772</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="15">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="A21" s="18">
         <v>42772</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="15">
         <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+      <c r="A22" s="18">
         <v>42773</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
+      <c r="A23" s="18">
         <v>42773</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="18">
         <v>42773</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
+      <c r="A25" s="18">
         <v>42773</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
+      <c r="A26" s="18">
         <v>42775</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="18">
         <v>42780</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="15">
         <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="23">
+      <c r="A28" s="18">
         <v>42780</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="15">
         <v>2.5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
+      <c r="A29" s="18">
         <v>42780</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15">
         <v>0.5</v>
@@ -2159,10 +2183,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>19</v>
@@ -2170,13 +2194,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2185,24 +2209,26 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2219,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2277,41 +2303,79 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>42800</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="18">
+        <v>42800</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18">
+        <v>42801</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="18">
+        <v>42807</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="18">
+        <v>42808</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="15">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="18">
+        <v>42801</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -2394,24 +2458,24 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2420,24 +2484,24 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2627,10 +2691,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2638,13 +2702,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2653,24 +2717,24 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2724,7 +2788,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2860,10 +2924,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2871,13 +2935,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2886,24 +2950,24 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="20"/>
+        <v>32</v>
+      </c>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="23"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="23"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="23"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="23"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Attente android studio et gradle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test </t>
   </si>
 </sst>
 </file>
@@ -2246,7 +2249,7 @@
   <dimension ref="A6:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2379,8 +2382,12 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
@@ -2464,7 +2471,7 @@
       <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9348" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9348" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -216,6 +216,39 @@
   </si>
   <si>
     <t xml:space="preserve">test </t>
+  </si>
+  <si>
+    <t>amélioration du code et de la validation</t>
+  </si>
+  <si>
+    <t>amélioration de la lecture personnage</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>documentation sur les pnj</t>
+  </si>
+  <si>
+    <t>Documentation sur les bd et lequel est la meilleure à utiliser</t>
+  </si>
+  <si>
+    <t>commencement du code de la bd en sqlite</t>
+  </si>
+  <si>
+    <t>continuation de la bd</t>
+  </si>
+  <si>
+    <t>commencement des layouts sur l'Activité pnj</t>
+  </si>
+  <si>
+    <t>continuation de la bd et des layouts sur le pnj</t>
+  </si>
+  <si>
+    <t>test sur les pnjs</t>
+  </si>
+  <si>
+    <t>WAQ</t>
   </si>
 </sst>
 </file>
@@ -359,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -413,6 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2248,7 +2282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2525,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD47"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2583,59 +2617,115 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>42814</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18">
+        <v>42815</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="18">
+        <v>42821</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="18">
+        <v>42822</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="18">
+        <v>42828</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="18">
+        <v>42829</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
@@ -2704,7 +2794,7 @@
       <c r="B37" s="21"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9348" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9348" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>WAQ</t>
+  </si>
+  <si>
+    <t>codage des scripts de CRUD des pnj et des monstres dans la bd</t>
   </si>
 </sst>
 </file>
@@ -431,6 +434,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -446,7 +450,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1812,10 +1815,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>50</v>
@@ -1921,10 +1924,10 @@
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="21"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>40</v>
@@ -2220,10 +2223,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>19</v>
@@ -2248,24 +2251,24 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="23"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2499,10 +2502,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>16.5</v>
@@ -2527,22 +2530,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="23"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2559,7 +2562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -2640,7 +2643,7 @@
       <c r="A16" s="18">
         <v>42815</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="20" t="s">
         <v>68</v>
       </c>
       <c r="C16" s="15">
@@ -2788,10 +2791,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>18</v>
@@ -2816,22 +2819,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="23"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2848,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2906,9 +2909,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="12">
+        <v>42835</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -3021,13 +3030,13 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3049,22 +3058,22 @@
       <c r="A42" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="23"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
+      <c r="B43" s="24"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="23"/>
+      <c r="B44" s="24"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
+      <c r="B45" s="24"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
+      <c r="B46" s="24"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="24"/>
+      <c r="B47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/estimation.xlsx
+++ b/estimation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="86">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -252,6 +252,30 @@
   </si>
   <si>
     <t>codage des scripts de CRUD des pnj et des monstres dans la bd</t>
+  </si>
+  <si>
+    <t>Test des bd</t>
+  </si>
+  <si>
+    <t>Ajout des quetes à la bd</t>
+  </si>
+  <si>
+    <t>Debugage de la bd</t>
+  </si>
+  <si>
+    <t>Ajustement des interfaces</t>
+  </si>
+  <si>
+    <t>Test de lecture des monstres</t>
+  </si>
+  <si>
+    <t>Ajustement des standards des interfaces</t>
+  </si>
+  <si>
+    <t>Modification de la bd et de la suppression de personnage</t>
+  </si>
+  <si>
+    <t>Attende de l'ouverture de android studio</t>
   </si>
 </sst>
 </file>
@@ -2851,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2920,59 +2944,119 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="18">
+        <v>42836</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18">
+        <v>42837</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="18">
+        <v>42842</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="18">
+        <v>42843</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="18">
+        <v>42849</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="18">
+        <v>42850</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="A23" s="18">
+        <v>42856</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="18">
+        <v>42857</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="15">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
@@ -3001,8 +3085,12 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
@@ -3036,7 +3124,7 @@
       <c r="B37" s="22"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>3</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
